--- a/Code/Results/Cases/Case_5_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.38603466663502</v>
+        <v>18.45799994421992</v>
       </c>
       <c r="C2">
-        <v>16.76151731602301</v>
+        <v>9.160868140124864</v>
       </c>
       <c r="D2">
-        <v>5.508548830430553</v>
+        <v>7.74780320533904</v>
       </c>
       <c r="E2">
-        <v>6.859983214555188</v>
+        <v>9.868800480874159</v>
       </c>
       <c r="F2">
-        <v>40.49320999807153</v>
+        <v>40.75843688601577</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>27.64953985194265</v>
+        <v>32.27767050510458</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.540019085375263</v>
+        <v>10.35085250042845</v>
       </c>
       <c r="M2">
-        <v>12.66568629166899</v>
+        <v>16.68056971028239</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85549391719222</v>
+        <v>18.12031132147241</v>
       </c>
       <c r="C3">
-        <v>15.58473877754384</v>
+        <v>8.549156298291283</v>
       </c>
       <c r="D3">
-        <v>5.548881492420803</v>
+        <v>7.761444272748255</v>
       </c>
       <c r="E3">
-        <v>6.802531651674302</v>
+        <v>9.853265667986747</v>
       </c>
       <c r="F3">
-        <v>38.66908493569075</v>
+        <v>40.40164030969925</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>26.87216711528264</v>
+        <v>32.17800951951012</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.451471502265208</v>
+        <v>10.36146805487871</v>
       </c>
       <c r="M3">
-        <v>12.10594096590127</v>
+        <v>16.63224542646556</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86909413378347</v>
+        <v>17.91599688949036</v>
       </c>
       <c r="C4">
-        <v>14.82699154452789</v>
+        <v>8.180485582758831</v>
       </c>
       <c r="D4">
-        <v>5.576049481636935</v>
+        <v>7.770545946825372</v>
       </c>
       <c r="E4">
-        <v>6.767471300001674</v>
+        <v>9.843458967855673</v>
       </c>
       <c r="F4">
-        <v>37.54844285579353</v>
+        <v>40.19174032264959</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>26.40938421818616</v>
+        <v>32.12330283803291</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.400589633913557</v>
+        <v>10.36956841078441</v>
       </c>
       <c r="M4">
-        <v>11.75973432227963</v>
+        <v>16.60650184841728</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45524303642771</v>
+        <v>17.83362574962241</v>
       </c>
       <c r="C5">
-        <v>14.5091842788053</v>
+        <v>8.032866124750848</v>
       </c>
       <c r="D5">
-        <v>5.587689045979221</v>
+        <v>7.77443683348076</v>
       </c>
       <c r="E5">
-        <v>6.753214795997664</v>
+        <v>9.839394905585182</v>
       </c>
       <c r="F5">
-        <v>37.0919774702602</v>
+        <v>40.10858002655517</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>26.22443439961885</v>
+        <v>32.1026454165824</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.380714955168576</v>
+        <v>10.37326714411945</v>
       </c>
       <c r="M5">
-        <v>11.61817648049248</v>
+        <v>16.59700625996366</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.38580141400628</v>
+        <v>17.82000546900203</v>
       </c>
       <c r="C6">
-        <v>14.4558632525667</v>
+        <v>8.008117276074433</v>
       </c>
       <c r="D6">
-        <v>5.589655135532147</v>
+        <v>7.77509387756264</v>
       </c>
       <c r="E6">
-        <v>6.75084874605739</v>
+        <v>9.838715970453491</v>
       </c>
       <c r="F6">
-        <v>37.01620632409059</v>
+        <v>40.09491670895471</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>26.19394303908205</v>
+        <v>32.0993141921601</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.377466240295833</v>
+        <v>10.37390533536549</v>
       </c>
       <c r="M6">
-        <v>11.59464734622096</v>
+        <v>16.59548982568691</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.86356110623476</v>
+        <v>17.91488223754037</v>
       </c>
       <c r="C7">
-        <v>14.82274221457599</v>
+        <v>8.178510700732799</v>
       </c>
       <c r="D7">
-        <v>5.576204200288172</v>
+        <v>7.770597685174736</v>
       </c>
       <c r="E7">
-        <v>6.767278935726388</v>
+        <v>9.843404433179623</v>
       </c>
       <c r="F7">
-        <v>37.54228543320949</v>
+        <v>40.19060908834183</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>26.40687520469028</v>
+        <v>32.12301761548833</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.400318136526518</v>
+        <v>10.36961668285732</v>
       </c>
       <c r="M7">
-        <v>11.75782692035923</v>
+        <v>16.60636974932464</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86788285665834</v>
+        <v>18.34101288855101</v>
       </c>
       <c r="C8">
-        <v>16.36296446173374</v>
+        <v>8.954773425292279</v>
       </c>
       <c r="D8">
-        <v>5.521933759483879</v>
+        <v>7.752355554885988</v>
       </c>
       <c r="E8">
-        <v>6.840114474786418</v>
+        <v>9.863499574267383</v>
       </c>
       <c r="F8">
-        <v>39.86457039363964</v>
+        <v>40.63355198149902</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>27.37847431592193</v>
+        <v>32.241964933774</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.508754082832508</v>
+        <v>10.35418426784245</v>
       </c>
       <c r="M8">
-        <v>12.47329489049698</v>
+        <v>16.6630970896989</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.43662256459017</v>
+        <v>19.1951050967572</v>
       </c>
       <c r="C9">
-        <v>19.11241033109268</v>
+        <v>10.35285892843316</v>
       </c>
       <c r="D9">
-        <v>5.436428338259836</v>
+        <v>7.722373731891127</v>
       </c>
       <c r="E9">
-        <v>6.98585111382669</v>
+        <v>9.900791979787225</v>
       </c>
       <c r="F9">
-        <v>44.4027574872478</v>
+        <v>41.57170681545403</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>29.4005935353897</v>
+        <v>32.52637909115693</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.749855429584082</v>
+        <v>10.33648063554044</v>
       </c>
       <c r="M9">
-        <v>14.04528556091233</v>
+        <v>16.80512984684274</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.85160493002709</v>
+        <v>19.82651826865609</v>
       </c>
       <c r="C10">
-        <v>20.98031413460438</v>
+        <v>11.26912385133709</v>
       </c>
       <c r="D10">
-        <v>5.389332798700304</v>
+        <v>7.703918228107545</v>
       </c>
       <c r="E10">
-        <v>7.096644101592616</v>
+        <v>9.926923476377512</v>
       </c>
       <c r="F10">
-        <v>47.72095575939625</v>
+        <v>42.29871886166525</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>30.96170141992787</v>
+        <v>32.76601570514836</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.945580370556244</v>
+        <v>10.3311331811732</v>
       </c>
       <c r="M10">
-        <v>15.39942136996238</v>
+        <v>16.92768607581563</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.90888088361738</v>
+        <v>20.1131241821836</v>
       </c>
       <c r="C11">
-        <v>21.80039291243926</v>
+        <v>11.66213646970422</v>
       </c>
       <c r="D11">
-        <v>5.372120983743828</v>
+        <v>7.696307075902002</v>
       </c>
       <c r="E11">
-        <v>7.148383885574471</v>
+        <v>9.938540951006672</v>
       </c>
       <c r="F11">
-        <v>49.22819116492923</v>
+        <v>42.63659173468183</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>31.68999112772693</v>
+        <v>32.88154896831794</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.038987484371711</v>
+        <v>10.33036276751773</v>
       </c>
       <c r="M11">
-        <v>15.99205243658361</v>
+        <v>16.98725223177431</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.30364978256672</v>
+        <v>20.22144635513911</v>
       </c>
       <c r="C12">
-        <v>22.10699498732818</v>
+        <v>11.80755800301248</v>
       </c>
       <c r="D12">
-        <v>5.366288803967136</v>
+        <v>7.69353848452628</v>
       </c>
       <c r="E12">
-        <v>7.168222358850618</v>
+        <v>9.942901724526745</v>
       </c>
       <c r="F12">
-        <v>49.79889718105859</v>
+        <v>42.76547086945218</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>31.96859501293665</v>
+        <v>32.92622100209537</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.075020309618657</v>
+        <v>10.33030979743408</v>
       </c>
       <c r="M12">
-        <v>16.21330614640194</v>
+        <v>17.01034358829608</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.21887226859463</v>
+        <v>20.19812838030639</v>
       </c>
       <c r="C13">
-        <v>22.04113261498574</v>
+        <v>11.77638996271146</v>
       </c>
       <c r="D13">
-        <v>5.367512972092267</v>
+        <v>7.694129685638742</v>
       </c>
       <c r="E13">
-        <v>7.163937914434395</v>
+        <v>9.941964262029819</v>
       </c>
       <c r="F13">
-        <v>49.67598179204683</v>
+        <v>42.73767442036534</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>31.90846335372793</v>
+        <v>32.9165593365738</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.067229972696665</v>
+        <v>10.33031059108105</v>
       </c>
       <c r="M13">
-        <v>16.16579243960019</v>
+        <v>17.00534688521664</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94146883090671</v>
+        <v>20.12204076865901</v>
       </c>
       <c r="C14">
-        <v>21.82569431387411</v>
+        <v>11.67416849751456</v>
       </c>
       <c r="D14">
-        <v>5.371626925323313</v>
+        <v>7.696077021184403</v>
       </c>
       <c r="E14">
-        <v>7.150010746695671</v>
+        <v>9.938900484602392</v>
       </c>
       <c r="F14">
-        <v>49.27514243616032</v>
+        <v>42.64717652579163</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>31.71285415051606</v>
+        <v>32.88520577879081</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.041938454116645</v>
+        <v>10.33035362609293</v>
       </c>
       <c r="M14">
-        <v>16.01031727454848</v>
+        <v>16.98914133138899</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77083308722545</v>
+        <v>20.07540421824601</v>
       </c>
       <c r="C15">
-        <v>21.69322869939359</v>
+        <v>11.61111217471687</v>
       </c>
       <c r="D15">
-        <v>5.374238702092236</v>
+        <v>7.697284636567667</v>
       </c>
       <c r="E15">
-        <v>7.141513689079853</v>
+        <v>9.937018825885913</v>
       </c>
       <c r="F15">
-        <v>49.02962065508926</v>
+        <v>42.59186276016681</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>31.59341200808787</v>
+        <v>32.86612041048955</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.026533921148438</v>
+        <v>10.33041107214066</v>
       </c>
       <c r="M15">
-        <v>15.91467866559967</v>
+        <v>16.97928420926308</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.78170633212617</v>
+        <v>19.80776497278789</v>
       </c>
       <c r="C16">
-        <v>20.92614986632605</v>
+        <v>11.24296222111865</v>
       </c>
       <c r="D16">
-        <v>5.390548942107374</v>
+        <v>7.704431486034617</v>
       </c>
       <c r="E16">
-        <v>7.093294078431388</v>
+        <v>9.926158841743034</v>
       </c>
       <c r="F16">
-        <v>47.62242912625625</v>
+        <v>42.27677395295873</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>30.91448719799755</v>
+        <v>32.75859525900321</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.939566627133968</v>
+        <v>10.33121695732677</v>
       </c>
       <c r="M16">
-        <v>15.36023759908705</v>
+        <v>16.92386890576596</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.16455702562251</v>
+        <v>19.64332988066567</v>
       </c>
       <c r="C17">
-        <v>20.44819370433718</v>
+        <v>11.0110315329405</v>
       </c>
       <c r="D17">
-        <v>5.40168666460835</v>
+        <v>7.709017303638934</v>
       </c>
       <c r="E17">
-        <v>7.064091051914801</v>
+        <v>9.919427681537735</v>
       </c>
       <c r="F17">
-        <v>46.75873647964567</v>
+        <v>42.08524226062007</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>30.50276125088095</v>
+        <v>32.69429171160598</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.887356027707241</v>
+        <v>10.33213691385737</v>
       </c>
       <c r="M17">
-        <v>15.01425311260048</v>
+        <v>16.89084104558545</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.80567753793453</v>
+        <v>19.54869893248694</v>
       </c>
       <c r="C18">
-        <v>20.17047473834668</v>
+        <v>10.87538977111624</v>
       </c>
       <c r="D18">
-        <v>5.408483809525847</v>
+        <v>7.711728723245162</v>
       </c>
       <c r="E18">
-        <v>7.04741666257456</v>
+        <v>9.915530676549551</v>
       </c>
       <c r="F18">
-        <v>46.26172851406267</v>
+        <v>41.97575720334574</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>30.26763807446309</v>
+        <v>32.65792087817659</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.857734961443961</v>
+        <v>10.33282252032158</v>
       </c>
       <c r="M18">
-        <v>14.81303888582402</v>
+        <v>16.8722042235064</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.68348563435373</v>
+        <v>19.51665326715879</v>
       </c>
       <c r="C19">
-        <v>20.07595202012601</v>
+        <v>10.82907827235406</v>
       </c>
       <c r="D19">
-        <v>5.410850125642449</v>
+        <v>7.71265941062839</v>
       </c>
       <c r="E19">
-        <v>7.041790549927238</v>
+        <v>9.914206842814597</v>
       </c>
       <c r="F19">
-        <v>46.09340404722332</v>
+        <v>41.93880689339175</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>30.18831449917962</v>
+        <v>32.64571239329649</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.847775135111127</v>
+        <v>10.33308153521737</v>
       </c>
       <c r="M19">
-        <v>14.74452546503286</v>
+        <v>16.86595633441652</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.23065612308135</v>
+        <v>19.66084056312134</v>
       </c>
       <c r="C20">
-        <v>20.49936173399308</v>
+        <v>11.03595278723</v>
       </c>
       <c r="D20">
-        <v>5.400460025875652</v>
+        <v>7.708521493957093</v>
       </c>
       <c r="E20">
-        <v>7.067186737471971</v>
+        <v>9.920146853736989</v>
       </c>
       <c r="F20">
-        <v>46.85070086210375</v>
+        <v>42.10556155024061</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>30.54641390105391</v>
+        <v>32.70107340602839</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.89287137716485</v>
+        <v>10.33202279020861</v>
       </c>
       <c r="M20">
-        <v>15.05131144320269</v>
+        <v>16.89431976219256</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.02309792251826</v>
+        <v>20.14439614516355</v>
       </c>
       <c r="C21">
-        <v>21.88907804966167</v>
+        <v>11.7042856497223</v>
       </c>
       <c r="D21">
-        <v>5.370399253261366</v>
+        <v>7.695501952427811</v>
       </c>
       <c r="E21">
-        <v>7.154094355133534</v>
+        <v>9.939801433137555</v>
       </c>
       <c r="F21">
-        <v>49.39287716194588</v>
+        <v>42.67373336214639</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>31.77023087217816</v>
+        <v>32.89439018624474</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.049348934084139</v>
+        <v>10.33033450796935</v>
       </c>
       <c r="M21">
-        <v>16.05606823187426</v>
+        <v>16.99388688970299</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.16212464752363</v>
+        <v>20.45915674971877</v>
       </c>
       <c r="C22">
-        <v>22.77453039495656</v>
+        <v>12.12124836590296</v>
       </c>
       <c r="D22">
-        <v>5.35479522605218</v>
+        <v>7.687655374302667</v>
       </c>
       <c r="E22">
-        <v>7.212357514021328</v>
+        <v>9.952422498687669</v>
       </c>
       <c r="F22">
-        <v>51.05427412365852</v>
+        <v>43.05046587284417</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>32.58663130413277</v>
+        <v>33.02610015720075</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.155492813343449</v>
+        <v>10.33062266783917</v>
       </c>
       <c r="M22">
-        <v>16.69441080737359</v>
+        <v>17.06207094498924</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.55704667788637</v>
+        <v>20.29131724473485</v>
       </c>
       <c r="C23">
-        <v>22.30391773613781</v>
+        <v>11.90051594257458</v>
       </c>
       <c r="D23">
-        <v>5.362723762923861</v>
+        <v>7.69178236179761</v>
       </c>
       <c r="E23">
-        <v>7.181107368289119</v>
+        <v>9.945706827119064</v>
       </c>
       <c r="F23">
-        <v>50.16743161187638</v>
+        <v>42.8489341464383</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>32.14929963111458</v>
+        <v>32.95531864238402</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.098474330675167</v>
+        <v>10.33034164957241</v>
       </c>
       <c r="M23">
-        <v>16.35531967649569</v>
+        <v>17.02539986773169</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.2007854300893</v>
+        <v>19.65292427046244</v>
       </c>
       <c r="C24">
-        <v>20.47623783495394</v>
+        <v>11.02469305892804</v>
       </c>
       <c r="D24">
-        <v>5.401013368161448</v>
+        <v>7.7087454160534</v>
       </c>
       <c r="E24">
-        <v>7.065786824268466</v>
+        <v>9.919821800640525</v>
       </c>
       <c r="F24">
-        <v>46.80912521457414</v>
+        <v>42.09637323287201</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>30.52667362033392</v>
+        <v>32.69800553776122</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.890376658173611</v>
+        <v>10.33207389737184</v>
       </c>
       <c r="M24">
-        <v>15.03456456030724</v>
+        <v>16.89274593906374</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50862129466928</v>
+        <v>18.96284380967276</v>
       </c>
       <c r="C25">
-        <v>18.39635661938558</v>
+        <v>9.994205526449971</v>
       </c>
       <c r="D25">
-        <v>5.457038958613356</v>
+        <v>7.729860346166999</v>
       </c>
       <c r="E25">
-        <v>6.945930420757497</v>
+        <v>9.890927500743627</v>
       </c>
       <c r="F25">
-        <v>43.17783587366484</v>
+        <v>41.31093064449767</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>28.8407296925365</v>
+        <v>32.44400619024844</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.681465065751982</v>
+        <v>10.33992475564372</v>
       </c>
       <c r="M25">
-        <v>13.52469803061678</v>
+        <v>16.76346434626941</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.45799994421992</v>
+        <v>21.38603466663496</v>
       </c>
       <c r="C2">
-        <v>9.160868140124864</v>
+        <v>16.76151731602316</v>
       </c>
       <c r="D2">
-        <v>7.74780320533904</v>
+        <v>5.508548830431073</v>
       </c>
       <c r="E2">
-        <v>9.868800480874159</v>
+        <v>6.859983214555123</v>
       </c>
       <c r="F2">
-        <v>40.75843688601577</v>
+        <v>40.49320999807161</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>32.27767050510458</v>
+        <v>27.64953985194284</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.35085250042845</v>
+        <v>6.540019085375305</v>
       </c>
       <c r="M2">
-        <v>16.68056971028239</v>
+        <v>12.665686291669</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.12031132147241</v>
+        <v>19.85549391719224</v>
       </c>
       <c r="C3">
-        <v>8.549156298291283</v>
+        <v>15.58473877754376</v>
       </c>
       <c r="D3">
-        <v>7.761444272748255</v>
+        <v>5.548881492420753</v>
       </c>
       <c r="E3">
-        <v>9.853265667986747</v>
+        <v>6.802531651674102</v>
       </c>
       <c r="F3">
-        <v>40.40164030969925</v>
+        <v>38.66908493569078</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>32.17800951951012</v>
+        <v>26.87216711528261</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.36146805487871</v>
+        <v>6.451471502265195</v>
       </c>
       <c r="M3">
-        <v>16.63224542646556</v>
+        <v>12.10594096590123</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.91599688949036</v>
+        <v>18.86909413378344</v>
       </c>
       <c r="C4">
-        <v>8.180485582758831</v>
+        <v>14.82699154452773</v>
       </c>
       <c r="D4">
-        <v>7.770545946825372</v>
+        <v>5.576049481637054</v>
       </c>
       <c r="E4">
-        <v>9.843458967855673</v>
+        <v>6.767471300001674</v>
       </c>
       <c r="F4">
-        <v>40.19174032264959</v>
+        <v>37.54844285579379</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>32.12330283803291</v>
+        <v>26.40938421818641</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.36956841078441</v>
+        <v>6.400589633913656</v>
       </c>
       <c r="M4">
-        <v>16.60650184841728</v>
+        <v>11.75973432227969</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.83362574962241</v>
+        <v>18.45524303642766</v>
       </c>
       <c r="C5">
-        <v>8.032866124750848</v>
+        <v>14.50918427880539</v>
       </c>
       <c r="D5">
-        <v>7.77443683348076</v>
+        <v>5.587689045979227</v>
       </c>
       <c r="E5">
-        <v>9.839394905585182</v>
+        <v>6.753214795997596</v>
       </c>
       <c r="F5">
-        <v>40.10858002655517</v>
+        <v>37.09197747026049</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>32.1026454165824</v>
+        <v>26.22443439961913</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.37326714411945</v>
+        <v>6.380714955168551</v>
       </c>
       <c r="M5">
-        <v>16.59700625996366</v>
+        <v>11.6181764804925</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.82000546900203</v>
+        <v>18.38580141400632</v>
       </c>
       <c r="C6">
-        <v>8.008117276074433</v>
+        <v>14.45586325256671</v>
       </c>
       <c r="D6">
-        <v>7.77509387756264</v>
+        <v>5.589655135532166</v>
       </c>
       <c r="E6">
-        <v>9.838715970453491</v>
+        <v>6.75084874605746</v>
       </c>
       <c r="F6">
-        <v>40.09491670895471</v>
+        <v>37.01620632409058</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>32.0993141921601</v>
+        <v>26.19394303908199</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.37390533536549</v>
+        <v>6.377466240295819</v>
       </c>
       <c r="M6">
-        <v>16.59548982568691</v>
+        <v>11.59464734622094</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.91488223754037</v>
+        <v>18.86356110623473</v>
       </c>
       <c r="C7">
-        <v>8.178510700732799</v>
+        <v>14.82274221457591</v>
       </c>
       <c r="D7">
-        <v>7.770597685174736</v>
+        <v>5.576204200288184</v>
       </c>
       <c r="E7">
-        <v>9.843404433179623</v>
+        <v>6.767278935726323</v>
       </c>
       <c r="F7">
-        <v>40.19060908834183</v>
+        <v>37.54228543320966</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>32.12301761548833</v>
+        <v>26.40687520469048</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.36961668285732</v>
+        <v>6.400318136526431</v>
       </c>
       <c r="M7">
-        <v>16.60636974932464</v>
+        <v>11.75782692035926</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.34101288855101</v>
+        <v>20.8678828566584</v>
       </c>
       <c r="C8">
-        <v>8.954773425292279</v>
+        <v>16.36296446173385</v>
       </c>
       <c r="D8">
-        <v>7.752355554885988</v>
+        <v>5.521933759483812</v>
       </c>
       <c r="E8">
-        <v>9.863499574267383</v>
+        <v>6.840114474786553</v>
       </c>
       <c r="F8">
-        <v>40.63355198149902</v>
+        <v>39.86457039363977</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>32.241964933774</v>
+        <v>27.378474315922</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.35418426784245</v>
+        <v>6.50875408283255</v>
       </c>
       <c r="M8">
-        <v>16.6630970896989</v>
+        <v>12.47329489049696</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.1951050967572</v>
+        <v>24.43662256459036</v>
       </c>
       <c r="C9">
-        <v>10.35285892843316</v>
+        <v>19.11241033109269</v>
       </c>
       <c r="D9">
-        <v>7.722373731891127</v>
+        <v>5.43642833825979</v>
       </c>
       <c r="E9">
-        <v>9.900791979787225</v>
+        <v>6.985851113826823</v>
       </c>
       <c r="F9">
-        <v>41.57170681545403</v>
+        <v>44.40275748724808</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>32.52637909115693</v>
+        <v>29.40059353538977</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.33648063554044</v>
+        <v>6.749855429584123</v>
       </c>
       <c r="M9">
-        <v>16.80512984684274</v>
+        <v>14.04528556091242</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.82651826865609</v>
+        <v>26.85160493002701</v>
       </c>
       <c r="C10">
-        <v>11.26912385133709</v>
+        <v>20.98031413460408</v>
       </c>
       <c r="D10">
-        <v>7.703918228107545</v>
+        <v>5.389332798700434</v>
       </c>
       <c r="E10">
-        <v>9.926923476377512</v>
+        <v>7.096644101592483</v>
       </c>
       <c r="F10">
-        <v>42.29871886166525</v>
+        <v>47.72095575939627</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>32.76601570514836</v>
+        <v>30.96170141992795</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.3311331811732</v>
+        <v>6.945580370556276</v>
       </c>
       <c r="M10">
-        <v>16.92768607581563</v>
+        <v>15.39942136996233</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.1131241821836</v>
+        <v>27.90888088361731</v>
       </c>
       <c r="C11">
-        <v>11.66213646970422</v>
+        <v>21.80039291243909</v>
       </c>
       <c r="D11">
-        <v>7.696307075902002</v>
+        <v>5.372120983743778</v>
       </c>
       <c r="E11">
-        <v>9.938540951006672</v>
+        <v>7.148383885574404</v>
       </c>
       <c r="F11">
-        <v>42.63659173468183</v>
+        <v>49.22819116492926</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>32.88154896831794</v>
+        <v>31.68999112772703</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.33036276751773</v>
+        <v>7.038987484371704</v>
       </c>
       <c r="M11">
-        <v>16.98725223177431</v>
+        <v>15.99205243658355</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.22144635513911</v>
+        <v>28.30364978256674</v>
       </c>
       <c r="C12">
-        <v>11.80755800301248</v>
+        <v>22.10699498732792</v>
       </c>
       <c r="D12">
-        <v>7.69353848452628</v>
+        <v>5.366288803967196</v>
       </c>
       <c r="E12">
-        <v>9.942901724526745</v>
+        <v>7.168222358850485</v>
       </c>
       <c r="F12">
-        <v>42.76547086945218</v>
+        <v>49.79889718105863</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>32.92622100209537</v>
+        <v>31.96859501293673</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.33030979743408</v>
+        <v>7.075020309618621</v>
       </c>
       <c r="M12">
-        <v>17.01034358829608</v>
+        <v>16.21330614640196</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.19812838030639</v>
+        <v>28.21887226859483</v>
       </c>
       <c r="C13">
-        <v>11.77638996271146</v>
+        <v>22.04113261498599</v>
       </c>
       <c r="D13">
-        <v>7.694129685638742</v>
+        <v>5.367512972092252</v>
       </c>
       <c r="E13">
-        <v>9.941964262029819</v>
+        <v>7.163937914434661</v>
       </c>
       <c r="F13">
-        <v>42.73767442036534</v>
+        <v>49.67598179204696</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>32.9165593365738</v>
+        <v>31.90846335372789</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.33031059108105</v>
+        <v>7.067229972696714</v>
       </c>
       <c r="M13">
-        <v>17.00534688521664</v>
+        <v>16.16579243960031</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.12204076865901</v>
+        <v>27.9414688309068</v>
       </c>
       <c r="C14">
-        <v>11.67416849751456</v>
+        <v>21.82569431387392</v>
       </c>
       <c r="D14">
-        <v>7.696077021184403</v>
+        <v>5.371626925323337</v>
       </c>
       <c r="E14">
-        <v>9.938900484602392</v>
+        <v>7.150010746695671</v>
       </c>
       <c r="F14">
-        <v>42.64717652579163</v>
+        <v>49.27514243616034</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>32.88520577879081</v>
+        <v>31.71285415051608</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.33035362609293</v>
+        <v>7.041938454116664</v>
       </c>
       <c r="M14">
-        <v>16.98914133138899</v>
+        <v>16.01031727454851</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.07540421824601</v>
+        <v>27.7708330872255</v>
       </c>
       <c r="C15">
-        <v>11.61111217471687</v>
+        <v>21.69322869939363</v>
       </c>
       <c r="D15">
-        <v>7.697284636567667</v>
+        <v>5.374238702092347</v>
       </c>
       <c r="E15">
-        <v>9.937018825885913</v>
+        <v>7.141513689079853</v>
       </c>
       <c r="F15">
-        <v>42.59186276016681</v>
+        <v>49.02962065508936</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>32.86612041048955</v>
+        <v>31.59341200808795</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.33041107214066</v>
+        <v>7.026533921148445</v>
       </c>
       <c r="M15">
-        <v>16.97928420926308</v>
+        <v>15.91467866559973</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.80776497278789</v>
+        <v>26.78170633212618</v>
       </c>
       <c r="C16">
-        <v>11.24296222111865</v>
+        <v>20.92614986632598</v>
       </c>
       <c r="D16">
-        <v>7.704431486034617</v>
+        <v>5.390548942107324</v>
       </c>
       <c r="E16">
-        <v>9.926158841743034</v>
+        <v>7.093294078431322</v>
       </c>
       <c r="F16">
-        <v>42.27677395295873</v>
+        <v>47.62242912625641</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>32.75859525900321</v>
+        <v>30.91448719799764</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.33121695732677</v>
+        <v>6.939566627133972</v>
       </c>
       <c r="M16">
-        <v>16.92386890576596</v>
+        <v>15.36023759908707</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.64332988066567</v>
+        <v>26.16455702562257</v>
       </c>
       <c r="C17">
-        <v>11.0110315329405</v>
+        <v>20.44819370433731</v>
       </c>
       <c r="D17">
-        <v>7.709017303638934</v>
+        <v>5.401686664608238</v>
       </c>
       <c r="E17">
-        <v>9.919427681537735</v>
+        <v>7.064091051914801</v>
       </c>
       <c r="F17">
-        <v>42.08524226062007</v>
+        <v>46.75873647964578</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>32.69429171160598</v>
+        <v>30.50276125088102</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.33213691385737</v>
+        <v>6.887356027707201</v>
       </c>
       <c r="M17">
-        <v>16.89084104558545</v>
+        <v>15.01425311260054</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.54869893248694</v>
+        <v>25.80567753793447</v>
       </c>
       <c r="C18">
-        <v>10.87538977111624</v>
+        <v>20.17047473834663</v>
       </c>
       <c r="D18">
-        <v>7.711728723245162</v>
+        <v>5.408483809525831</v>
       </c>
       <c r="E18">
-        <v>9.915530676549551</v>
+        <v>7.047416662574496</v>
       </c>
       <c r="F18">
-        <v>41.97575720334574</v>
+        <v>46.26172851406266</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>32.65792087817659</v>
+        <v>30.26763807446313</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.33282252032158</v>
+        <v>6.857734961443958</v>
       </c>
       <c r="M18">
-        <v>16.8722042235064</v>
+        <v>14.81303888582401</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.51665326715879</v>
+        <v>25.68348563435388</v>
       </c>
       <c r="C19">
-        <v>10.82907827235406</v>
+        <v>20.07595202012616</v>
       </c>
       <c r="D19">
-        <v>7.71265941062839</v>
+        <v>5.410850125642433</v>
       </c>
       <c r="E19">
-        <v>9.914206842814597</v>
+        <v>7.041790549927239</v>
       </c>
       <c r="F19">
-        <v>41.93880689339175</v>
+        <v>46.09340404722334</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>32.64571239329649</v>
+        <v>30.18831449917954</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.33308153521737</v>
+        <v>6.84777513511113</v>
       </c>
       <c r="M19">
-        <v>16.86595633441652</v>
+        <v>14.74452546503293</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.66084056312134</v>
+        <v>26.23065612308129</v>
       </c>
       <c r="C20">
-        <v>11.03595278723</v>
+        <v>20.49936173399298</v>
       </c>
       <c r="D20">
-        <v>7.708521493957093</v>
+        <v>5.40046002587588</v>
       </c>
       <c r="E20">
-        <v>9.920146853736989</v>
+        <v>7.067186737472035</v>
       </c>
       <c r="F20">
-        <v>42.10556155024061</v>
+        <v>46.85070086210386</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>32.70107340602839</v>
+        <v>30.54641390105405</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.33202279020861</v>
+        <v>6.89287137716487</v>
       </c>
       <c r="M20">
-        <v>16.89431976219256</v>
+        <v>15.05131144320265</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.14439614516355</v>
+        <v>28.02309792251838</v>
       </c>
       <c r="C21">
-        <v>11.7042856497223</v>
+        <v>21.88907804966168</v>
       </c>
       <c r="D21">
-        <v>7.695501952427811</v>
+        <v>5.370399253261484</v>
       </c>
       <c r="E21">
-        <v>9.939801433137555</v>
+        <v>7.154094355133397</v>
       </c>
       <c r="F21">
-        <v>42.67373336214639</v>
+        <v>49.39287716194609</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>32.89439018624474</v>
+        <v>31.77023087217828</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.33033450796935</v>
+        <v>7.049348934084149</v>
       </c>
       <c r="M21">
-        <v>16.99388688970299</v>
+        <v>16.05606823187437</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.45915674971877</v>
+        <v>29.16212464752356</v>
       </c>
       <c r="C22">
-        <v>12.12124836590296</v>
+        <v>22.77453039495654</v>
       </c>
       <c r="D22">
-        <v>7.687655374302667</v>
+        <v>5.354795226052202</v>
       </c>
       <c r="E22">
-        <v>9.952422498687669</v>
+        <v>7.212357514021257</v>
       </c>
       <c r="F22">
-        <v>43.05046587284417</v>
+        <v>51.05427412365867</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>33.02610015720075</v>
+        <v>32.58663130413287</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.33062266783917</v>
+        <v>7.1554928133434</v>
       </c>
       <c r="M22">
-        <v>17.06207094498924</v>
+        <v>16.69441080737359</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.29131724473485</v>
+        <v>28.55704667788646</v>
       </c>
       <c r="C23">
-        <v>11.90051594257458</v>
+        <v>22.30391773613777</v>
       </c>
       <c r="D23">
-        <v>7.69178236179761</v>
+        <v>5.362723762923836</v>
       </c>
       <c r="E23">
-        <v>9.945706827119064</v>
+        <v>7.181107368288984</v>
       </c>
       <c r="F23">
-        <v>42.8489341464383</v>
+        <v>50.16743161187648</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>32.95531864238402</v>
+        <v>32.14929963111461</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.33034164957241</v>
+        <v>7.098474330675167</v>
       </c>
       <c r="M23">
-        <v>17.02539986773169</v>
+        <v>16.35531967649574</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.65292427046244</v>
+        <v>26.20078543008938</v>
       </c>
       <c r="C24">
-        <v>11.02469305892804</v>
+        <v>20.47623783495395</v>
       </c>
       <c r="D24">
-        <v>7.7087454160534</v>
+        <v>5.401013368161598</v>
       </c>
       <c r="E24">
-        <v>9.919821800640525</v>
+        <v>7.065786824268662</v>
       </c>
       <c r="F24">
-        <v>42.09637323287201</v>
+        <v>46.80912521457434</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>32.69800553776122</v>
+        <v>30.52667362033401</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.33207389737184</v>
+        <v>6.890376658173698</v>
       </c>
       <c r="M24">
-        <v>16.89274593906374</v>
+        <v>15.03456456030726</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.96284380967276</v>
+        <v>23.50862129466931</v>
       </c>
       <c r="C25">
-        <v>9.994205526449971</v>
+        <v>18.3963566193857</v>
       </c>
       <c r="D25">
-        <v>7.729860346166999</v>
+        <v>5.457038958613366</v>
       </c>
       <c r="E25">
-        <v>9.890927500743627</v>
+        <v>6.945930420757628</v>
       </c>
       <c r="F25">
-        <v>41.31093064449767</v>
+        <v>43.17783587366478</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>32.44400619024844</v>
+        <v>28.84072969253645</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.33992475564372</v>
+        <v>6.681465065751967</v>
       </c>
       <c r="M25">
-        <v>16.76346434626941</v>
+        <v>13.52469803061683</v>
       </c>
       <c r="N25">
         <v>0</v>
